--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.488197333333333</v>
+        <v>7.613107666666667</v>
       </c>
       <c r="H2">
-        <v>7.464592000000001</v>
+        <v>22.839323</v>
       </c>
       <c r="I2">
-        <v>0.02883014447233219</v>
+        <v>0.08102996839946881</v>
       </c>
       <c r="J2">
-        <v>0.02883014447233219</v>
+        <v>0.0810299683994688</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>246.1989747988694</v>
+        <v>1279.83821531341</v>
       </c>
       <c r="R2">
-        <v>2215.790773189824</v>
+        <v>11518.54393782069</v>
       </c>
       <c r="S2">
-        <v>0.006048592255325488</v>
+        <v>0.02418081940666305</v>
       </c>
       <c r="T2">
-        <v>0.006048592255325489</v>
+        <v>0.02418081940666305</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.488197333333333</v>
+        <v>7.613107666666667</v>
       </c>
       <c r="H3">
-        <v>7.464592000000001</v>
+        <v>22.839323</v>
       </c>
       <c r="I3">
-        <v>0.02883014447233219</v>
+        <v>0.08102996839946881</v>
       </c>
       <c r="J3">
-        <v>0.02883014447233219</v>
+        <v>0.0810299683994688</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>405.5916809025049</v>
+        <v>1240.984022468373</v>
       </c>
       <c r="R3">
-        <v>3650.325128122544</v>
+        <v>11168.85620221536</v>
       </c>
       <c r="S3">
-        <v>0.009964536618950227</v>
+        <v>0.02344672176124511</v>
       </c>
       <c r="T3">
-        <v>0.009964536618950229</v>
+        <v>0.02344672176124511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.488197333333333</v>
+        <v>7.613107666666667</v>
       </c>
       <c r="H4">
-        <v>7.464592000000001</v>
+        <v>22.839323</v>
       </c>
       <c r="I4">
-        <v>0.02883014447233219</v>
+        <v>0.08102996839946881</v>
       </c>
       <c r="J4">
-        <v>0.02883014447233219</v>
+        <v>0.0810299683994688</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>358.9791879385422</v>
+        <v>1263.726615860063</v>
       </c>
       <c r="R4">
-        <v>3230.81269144688</v>
+        <v>11373.53954274057</v>
       </c>
       <c r="S4">
-        <v>0.00881936546552212</v>
+        <v>0.02387641243391264</v>
       </c>
       <c r="T4">
-        <v>0.008819365465522123</v>
+        <v>0.02387641243391263</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.488197333333333</v>
+        <v>7.613107666666667</v>
       </c>
       <c r="H5">
-        <v>7.464592000000001</v>
+        <v>22.839323</v>
       </c>
       <c r="I5">
-        <v>0.02883014447233219</v>
+        <v>0.08102996839946881</v>
       </c>
       <c r="J5">
-        <v>0.02883014447233219</v>
+        <v>0.0810299683994688</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>162.7184182183823</v>
+        <v>504.1912588913966</v>
       </c>
       <c r="R5">
-        <v>1464.46576396544</v>
+        <v>4537.721330022569</v>
       </c>
       <c r="S5">
-        <v>0.003997650132534348</v>
+        <v>0.009526014797648011</v>
       </c>
       <c r="T5">
-        <v>0.003997650132534349</v>
+        <v>0.009526014797648009</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>220.729927</v>
       </c>
       <c r="I6">
-        <v>0.8525148708432205</v>
+        <v>0.7831116101658118</v>
       </c>
       <c r="J6">
-        <v>0.8525148708432206</v>
+        <v>0.7831116101658117</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>7280.16772180305</v>
+        <v>12368.95663842309</v>
       </c>
       <c r="R6">
-        <v>65521.50949622745</v>
+        <v>111320.6097458078</v>
       </c>
       <c r="S6">
-        <v>0.1788584462447191</v>
+        <v>0.2336947773116094</v>
       </c>
       <c r="T6">
-        <v>0.1788584462447191</v>
+        <v>0.2336947773116094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>220.729927</v>
       </c>
       <c r="I7">
-        <v>0.8525148708432205</v>
+        <v>0.7831116101658118</v>
       </c>
       <c r="J7">
-        <v>0.8525148708432206</v>
+        <v>0.7831116101658117</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>11993.45149974938</v>
@@ -883,10 +883,10 @@
         <v>107941.0634977444</v>
       </c>
       <c r="S7">
-        <v>0.2946539396245247</v>
+        <v>0.2266001134424582</v>
       </c>
       <c r="T7">
-        <v>0.2946539396245249</v>
+        <v>0.2266001134424582</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>220.729927</v>
       </c>
       <c r="I8">
-        <v>0.8525148708432205</v>
+        <v>0.7831116101658118</v>
       </c>
       <c r="J8">
-        <v>0.8525148708432206</v>
+        <v>0.7831116101658117</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>10615.10795877306</v>
+        <v>12213.24658645744</v>
       </c>
       <c r="R8">
-        <v>95535.97162895754</v>
+        <v>109919.2192781169</v>
       </c>
       <c r="S8">
-        <v>0.2607909307556285</v>
+        <v>0.2307528455882615</v>
       </c>
       <c r="T8">
-        <v>0.2607909307556286</v>
+        <v>0.2307528455882615</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>220.729927</v>
       </c>
       <c r="I9">
-        <v>0.8525148708432205</v>
+        <v>0.7831116101658118</v>
       </c>
       <c r="J9">
-        <v>0.8525148708432206</v>
+        <v>0.7831116101658117</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>4811.62595020585</v>
+        <v>4872.740744948354</v>
       </c>
       <c r="R9">
-        <v>43304.63355185265</v>
+        <v>43854.66670453519</v>
       </c>
       <c r="S9">
-        <v>0.118211554218348</v>
+        <v>0.09206387382348265</v>
       </c>
       <c r="T9">
-        <v>0.1182115542183481</v>
+        <v>0.09206387382348265</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.19160466666666</v>
+        <v>12.72068066666667</v>
       </c>
       <c r="H10">
-        <v>30.574814</v>
+        <v>38.162042</v>
       </c>
       <c r="I10">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534006</v>
       </c>
       <c r="J10">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534005</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>1008.425894069779</v>
+        <v>2138.471430435805</v>
       </c>
       <c r="R10">
-        <v>9075.833046628008</v>
+        <v>19246.24287392224</v>
       </c>
       <c r="S10">
-        <v>0.02477490841675168</v>
+        <v>0.04040353760886391</v>
       </c>
       <c r="T10">
-        <v>0.02477490841675168</v>
+        <v>0.04040353760886391</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.19160466666666</v>
+        <v>12.72068066666667</v>
       </c>
       <c r="H11">
-        <v>30.574814</v>
+        <v>38.162042</v>
       </c>
       <c r="I11">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534006</v>
       </c>
       <c r="J11">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534005</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>1661.295112116166</v>
+        <v>2073.550270591077</v>
       </c>
       <c r="R11">
-        <v>14951.6560090455</v>
+        <v>18661.95243531969</v>
       </c>
       <c r="S11">
-        <v>0.040814535304889</v>
+        <v>0.03917693972868416</v>
       </c>
       <c r="T11">
-        <v>0.04081453530488901</v>
+        <v>0.03917693972868416</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.19160466666666</v>
+        <v>12.72068066666667</v>
       </c>
       <c r="H12">
-        <v>30.574814</v>
+        <v>38.162042</v>
       </c>
       <c r="I12">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534006</v>
       </c>
       <c r="J12">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534005</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>1470.371307781051</v>
+        <v>2111.550687862753</v>
       </c>
       <c r="R12">
-        <v>13233.34177002946</v>
+        <v>19003.95619076478</v>
       </c>
       <c r="S12">
-        <v>0.03612393801380735</v>
+        <v>0.03989490643449879</v>
       </c>
       <c r="T12">
-        <v>0.03612393801380735</v>
+        <v>0.03989490643449878</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.19160466666666</v>
+        <v>12.72068066666667</v>
       </c>
       <c r="H13">
-        <v>30.574814</v>
+        <v>38.162042</v>
       </c>
       <c r="I13">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534006</v>
       </c>
       <c r="J13">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534005</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>666.4912658858311</v>
+        <v>842.4491390505029</v>
       </c>
       <c r="R13">
-        <v>5998.42139297248</v>
+        <v>7582.042251454526</v>
       </c>
       <c r="S13">
-        <v>0.01637429202283434</v>
+        <v>0.0159169418813537</v>
       </c>
       <c r="T13">
-        <v>0.01637429202283434</v>
+        <v>0.0159169418813537</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.048962</v>
+        <v>0.04379166666666667</v>
       </c>
       <c r="H14">
-        <v>0.146886</v>
+        <v>0.131375</v>
       </c>
       <c r="I14">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189216</v>
       </c>
       <c r="J14">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189215</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>4.844629500488</v>
+        <v>7.361809521972223</v>
       </c>
       <c r="R14">
-        <v>43.601665504392</v>
+        <v>66.25628569775</v>
       </c>
       <c r="S14">
-        <v>0.0001190223822033059</v>
+        <v>0.0001390914761155731</v>
       </c>
       <c r="T14">
-        <v>0.0001190223822033059</v>
+        <v>0.0001390914761155731</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.048962</v>
+        <v>0.04379166666666667</v>
       </c>
       <c r="H15">
-        <v>0.146886</v>
+        <v>0.131375</v>
       </c>
       <c r="I15">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189216</v>
       </c>
       <c r="J15">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189215</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>7.981111310711333</v>
+        <v>7.138314736902779</v>
       </c>
       <c r="R15">
-        <v>71.830001796402</v>
+        <v>64.24483263212501</v>
       </c>
       <c r="S15">
-        <v>0.0001960791595590386</v>
+        <v>0.0001348688431519436</v>
       </c>
       <c r="T15">
-        <v>0.0001960791595590386</v>
+        <v>0.0001348688431519435</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.048962</v>
+        <v>0.04379166666666667</v>
       </c>
       <c r="H16">
-        <v>0.146886</v>
+        <v>0.131375</v>
       </c>
       <c r="I16">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189216</v>
       </c>
       <c r="J16">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189215</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>7.063884670393333</v>
+        <v>7.269133334583334</v>
       </c>
       <c r="R16">
-        <v>63.57496203354</v>
+        <v>65.42220001125001</v>
       </c>
       <c r="S16">
-        <v>0.0001735448254598084</v>
+        <v>0.0001373404843701047</v>
       </c>
       <c r="T16">
-        <v>0.0001735448254598084</v>
+        <v>0.0001373404843701047</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.048962</v>
+        <v>0.04379166666666667</v>
       </c>
       <c r="H17">
-        <v>0.146886</v>
+        <v>0.131375</v>
       </c>
       <c r="I17">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189216</v>
       </c>
       <c r="J17">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189215</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>3.201924174613334</v>
+        <v>2.900179074347223</v>
       </c>
       <c r="R17">
-        <v>28.81731757152</v>
+        <v>26.10161166912501</v>
       </c>
       <c r="S17">
-        <v>7.866455894273126E-05</v>
+        <v>5.479497768130025E-05</v>
       </c>
       <c r="T17">
-        <v>7.866455894273127E-05</v>
+        <v>5.479497768130025E-05</v>
       </c>
     </row>
   </sheetData>
